--- a/target/test-classes/HrmTestDataOrg.xlsx
+++ b/target/test-classes/HrmTestDataOrg.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tpkta\OneDrive\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99EF2E0-0915-4253-9F5C-A50B929CF28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6055C3D1-0DB8-4305-9F13-0272C0C66463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{BE7D9D89-505E-4167-9B2C-6F984642D667}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BE7D9D89-505E-4167-9B2C-6F984642D667}"/>
   </bookViews>
   <sheets>
     <sheet name="CorN" sheetId="1" r:id="rId1"/>
     <sheet name="Branch" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:S20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -417,7 +413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9306A060-16FB-44C9-9BC9-B3685D3E5104}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -457,7 +453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC24F5A-5AC0-4499-80CD-9A840CD8710C}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>

--- a/target/test-classes/HrmTestDataOrg.xlsx
+++ b/target/test-classes/HrmTestDataOrg.xlsx
@@ -3,16 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6055C3D1-0DB8-4305-9F13-0272C0C66463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tpkta\OneDrive\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EBACA3-2735-4A9D-BAA1-38047A6013AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BE7D9D89-505E-4167-9B2C-6F984642D667}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{BE7D9D89-505E-4167-9B2C-6F984642D667}"/>
   </bookViews>
   <sheets>
     <sheet name="CorN" sheetId="1" r:id="rId1"/>
     <sheet name="Branch" sheetId="2" r:id="rId2"/>
+    <sheet name="employee" sheetId="3" r:id="rId3"/>
+    <sheet name="emp" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:S20"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="49">
   <si>
     <t>CorName</t>
   </si>
@@ -60,13 +66,130 @@
   </si>
   <si>
     <t>Kerala</t>
+  </si>
+  <si>
+    <t>Company ID</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Branches DateFrom</t>
+  </si>
+  <si>
+    <t>Branches RecentDate</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Branches</t>
+  </si>
+  <si>
+    <t>Doug</t>
+  </si>
+  <si>
+    <t>Schinner</t>
+  </si>
+  <si>
+    <t>Jul-07-1513</t>
+  </si>
+  <si>
+    <t>Nov-21-0073</t>
+  </si>
+  <si>
+    <t>Jani</t>
+  </si>
+  <si>
+    <t>Schuppe</t>
+  </si>
+  <si>
+    <t>Saul</t>
+  </si>
+  <si>
+    <t>Mitchell</t>
+  </si>
+  <si>
+    <t>hyd</t>
+  </si>
+  <si>
+    <t>delhi</t>
+  </si>
+  <si>
+    <t>rinl</t>
+  </si>
+  <si>
+    <t>infosys</t>
+  </si>
+  <si>
+    <t>vizag</t>
+  </si>
+  <si>
+    <t>Middle Name</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>mno</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>Miss Enrique Rohan</t>
+  </si>
+  <si>
+    <t>Contact Number</t>
+  </si>
+  <si>
+    <t>SSS</t>
+  </si>
+  <si>
+    <t>TIN</t>
+  </si>
+  <si>
+    <t>HDMF/Pag-ibig</t>
+  </si>
+  <si>
+    <t>GSIS</t>
+  </si>
+  <si>
+    <t>Jama Quitzon</t>
+  </si>
+  <si>
+    <t>Ms. Ernie Kub</t>
+  </si>
+  <si>
+    <t>Ms. Chung Willms</t>
+  </si>
+  <si>
+    <t>Sallie O'Reilly</t>
+  </si>
+  <si>
+    <t>Jul-07-1514</t>
+  </si>
+  <si>
+    <t>Jul-07-1515</t>
+  </si>
+  <si>
+    <t>Nov-21-0074</t>
+  </si>
+  <si>
+    <t>Nov-21-0075</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,16 +197,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -91,12 +239,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -112,6 +320,155 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>297180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0019BFE5-E2C8-7B5E-41DE-CE9503226E18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="556260" y="1249680"/>
+          <a:ext cx="762000" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35536C3A-2905-6E04-7AAF-51A8B5C2CEBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="1554480"/>
+          <a:ext cx="762000" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1027" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D35B971-A473-11E0-62AA-60FFC71CFEAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="2529840"/>
+          <a:ext cx="762000" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,7 +770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9306A060-16FB-44C9-9BC9-B3685D3E5104}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -497,4 +854,409 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB91EA6A-870A-4C5A-B290-09292AD0FED5}">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="45" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="9"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1234</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="7">
+        <v>68776862972</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>1234</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="7">
+        <v>68776862972</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>1234</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="7">
+        <v>68776862972</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E8B9B2-F937-40F7-8E8A-DF9D41933E00}">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="45" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="9"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1234</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="7">
+        <v>68776862972</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>1234</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="7">
+        <v>68776862972</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>1234</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="7">
+        <v>68776862972</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N1:O1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>